--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E814DA-7BE8-475A-8A85-F79897097E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3DCF0-AB77-4776-B247-D6BBA7814AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -178,16 +178,16 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>общая сумма графы "Итого", руб</t>
+  </si>
+  <si>
+    <t>средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>максимальная сумма к оплате</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +647,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
+        <f>4*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="1">
@@ -687,32 +688,33 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ref="D4:D38" si="0">4*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>305.8</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F38" si="1">DATE(2022,9,9)</f>
+        <f t="shared" ref="F4:F38" si="2">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="4">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="5">E4+J4</f>
         <v>305.8</v>
       </c>
     </row>
@@ -727,32 +729,33 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303.60000000000002</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303.60000000000002</v>
       </c>
     </row>
@@ -767,32 +770,33 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301.40000000000003</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>301.40000000000003</v>
       </c>
     </row>
@@ -807,32 +811,33 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>299.20000000000005</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>299.20000000000005</v>
       </c>
     </row>
@@ -847,32 +852,33 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>297</v>
       </c>
     </row>
@@ -887,32 +893,33 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294.8</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>294.8</v>
       </c>
     </row>
@@ -927,32 +934,33 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>292.60000000000002</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>292.60000000000002</v>
       </c>
     </row>
@@ -967,32 +975,33 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>290.40000000000003</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290.40000000000003</v>
       </c>
     </row>
@@ -1007,32 +1016,33 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>298.20000000000005</v>
       </c>
     </row>
@@ -1047,32 +1057,33 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>286</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
     </row>
@@ -1087,32 +1098,33 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>283.8</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.8</v>
       </c>
     </row>
@@ -1127,32 +1139,33 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>321.60000000000002</v>
       </c>
     </row>
@@ -1167,32 +1180,33 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>329.40000000000003</v>
       </c>
     </row>
@@ -1207,32 +1221,33 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>337.20000000000005</v>
       </c>
     </row>
@@ -1247,32 +1262,33 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
     </row>
@@ -1287,32 +1303,33 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272.8</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>352.8</v>
       </c>
     </row>
@@ -1327,32 +1344,33 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>360.6</v>
       </c>
     </row>
@@ -1367,32 +1385,33 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>368.40000000000003</v>
       </c>
     </row>
@@ -1407,14 +1426,15 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
@@ -1428,11 +1448,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>376.20000000000005</v>
       </c>
     </row>
@@ -1447,32 +1467,33 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
     </row>
@@ -1487,32 +1508,33 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261.8</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>391.8</v>
       </c>
     </row>
@@ -1527,32 +1549,33 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>399.6</v>
       </c>
     </row>
@@ -1567,32 +1590,33 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>407.40000000000003</v>
       </c>
     </row>
@@ -1607,32 +1631,33 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>415.20000000000005</v>
       </c>
     </row>
@@ -1647,32 +1672,33 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>423</v>
       </c>
     </row>
@@ -1687,32 +1713,33 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250.8</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>430.8</v>
       </c>
     </row>
@@ -1727,32 +1754,33 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>438.6</v>
       </c>
     </row>
@@ -1767,32 +1795,33 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>446.40000000000003</v>
       </c>
     </row>
@@ -1807,32 +1836,33 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.20000000000005</v>
       </c>
     </row>
@@ -1847,32 +1877,33 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>462</v>
       </c>
     </row>
@@ -1887,32 +1918,33 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>239.8</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>469.8</v>
       </c>
     </row>
@@ -1927,32 +1959,33 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
+        <f>4*1.1/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>358.8</v>
       </c>
     </row>
@@ -1967,32 +2000,33 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
+        <f t="shared" ref="D36:D38" si="6">4*1.1/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.7</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>367.7</v>
       </c>
     </row>
@@ -2007,32 +2041,33 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>376.6</v>
       </c>
     </row>
@@ -2047,32 +2082,33 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>385.5</v>
       </c>
     </row>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3DCF0-AB77-4776-B247-D6BBA7814AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E8C8C-E2D7-4277-8B9A-2EA59297E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +679,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -688,7 +689,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">4*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">4*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="1">
@@ -720,6 +721,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -761,6 +763,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -802,6 +805,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -843,6 +847,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -884,6 +889,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -925,6 +931,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -966,6 +973,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1007,6 +1015,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1048,6 +1057,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1089,6 +1099,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1130,6 +1141,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1171,6 +1183,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1212,6 +1225,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1253,6 +1267,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1294,6 +1309,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1335,6 +1351,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1376,6 +1393,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1417,6 +1435,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1458,6 +1477,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1499,6 +1519,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1540,6 +1561,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1581,6 +1603,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1622,6 +1645,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1663,6 +1687,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1704,6 +1729,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1745,6 +1771,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1786,6 +1813,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1827,6 +1855,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1868,6 +1897,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1909,6 +1939,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1950,6 +1981,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1991,6 +2023,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2000,7 +2033,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="6">4*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="7">4*1.1/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2032,6 +2065,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2041,7 +2075,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2073,6 +2107,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2082,7 +2117,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E8C8C-E2D7-4277-8B9A-2EA59297E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220C9BD-4A6D-4CE3-BB36-1A6B96F2936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="2715" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Абделазис</t>
-  </si>
-  <si>
     <t>Абдуллина</t>
   </si>
   <si>
@@ -178,23 +175,26 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>общая сумма графы "Итого", руб</t>
-  </si>
-  <si>
-    <t>средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>максимальная сумма к оплате</t>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +216,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,14 +575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -609,31 +617,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -641,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -683,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
@@ -725,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -767,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -809,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -851,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -893,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -935,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -977,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -1019,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -1061,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1103,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1145,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1187,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1229,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1271,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1313,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1355,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1397,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1439,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1481,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1523,7 +1531,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1565,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1607,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1649,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1691,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1733,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1775,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1817,7 +1825,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1859,7 +1867,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1901,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1943,7 +1951,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1985,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -2027,7 +2035,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -2069,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2111,7 +2119,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2162,7 +2170,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="3">
@@ -2180,7 +2188,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1">
@@ -2198,7 +2206,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1">
@@ -2216,7 +2224,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220C9BD-4A6D-4CE3-BB36-1A6B96F2936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760396C-A2DC-4C82-987F-FC7E605759ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="3750" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Абдуллина</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Купропаткин 2</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -188,6 +182,12 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,34 +614,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -1027,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1111,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1279,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1321,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1363,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1447,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1489,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1531,7 +1531,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1573,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1699,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1741,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1783,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1825,7 +1825,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1867,7 +1867,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1909,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1951,7 +1951,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1993,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -2035,7 +2035,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -2077,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2119,7 +2119,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2171,7 +2171,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2189,7 +2189,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2207,7 +2207,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2225,7 +2225,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760396C-A2DC-4C82-987F-FC7E605759ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433767D5-58A1-485C-B551-3857FCE058C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="4095" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -610,46 +610,46 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -690,7 +690,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -732,7 +732,7 @@
         <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
@@ -774,7 +774,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
@@ -816,7 +816,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
@@ -858,7 +858,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -900,7 +900,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -942,7 +942,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -984,7 +984,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -1026,7 +1026,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -1068,7 +1068,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -1110,7 +1110,7 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
@@ -1152,7 +1152,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
@@ -1194,7 +1194,7 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
@@ -1236,7 +1236,7 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
@@ -1278,7 +1278,7 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
@@ -1320,7 +1320,7 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1">
@@ -1362,7 +1362,7 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
@@ -1404,7 +1404,7 @@
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1">
@@ -1446,7 +1446,7 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
@@ -1488,7 +1488,7 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
@@ -1530,7 +1530,7 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
@@ -1572,7 +1572,7 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1">
@@ -1614,7 +1614,7 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1">
@@ -1656,7 +1656,7 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
@@ -1698,7 +1698,7 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
@@ -1740,7 +1740,7 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
@@ -1782,7 +1782,7 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
@@ -1824,7 +1824,7 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
@@ -1866,7 +1866,7 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
@@ -1908,7 +1908,7 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
@@ -1950,7 +1950,7 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
@@ -1992,7 +1992,7 @@
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
@@ -2034,7 +2034,7 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
@@ -2076,7 +2076,7 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
@@ -2118,8 +2118,8 @@
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>49</v>
+      <c r="B38" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2171,7 +2171,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2189,7 +2189,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2207,7 +2207,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2225,7 +2225,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433767D5-58A1-485C-B551-3857FCE058C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59DEA1D-A2EA-4973-A195-3A868A1D707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="4440" yWindow="3540" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>4*1.1</f>
+        <f>A$1*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="1">
@@ -663,7 +663,6 @@
         <v>308</v>
       </c>
       <c r="F3" s="2">
-        <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="2">
@@ -694,10 +693,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">4*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">A$1*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="1">
@@ -705,37 +705,40 @@
         <v>305.8</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F38" si="2">DATE(2022,9,9)</f>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="4">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="5">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>305.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="6">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -747,37 +750,40 @@
         <v>303.60000000000002</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>303.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -789,37 +795,40 @@
         <v>301.40000000000003</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>301.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -831,37 +840,40 @@
         <v>299.20000000000005</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>299.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -873,37 +885,40 @@
         <v>297</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -915,37 +930,40 @@
         <v>294.8</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>294.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -957,37 +975,40 @@
         <v>292.60000000000002</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>292.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -999,37 +1020,40 @@
         <v>290.40000000000003</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1041,37 +1065,40 @@
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1083,37 +1110,40 @@
         <v>286</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1125,37 +1155,40 @@
         <v>283.8</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1167,37 +1200,40 @@
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1209,37 +1245,40 @@
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1251,37 +1290,40 @@
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1293,37 +1335,40 @@
         <v>275</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1335,37 +1380,40 @@
         <v>272.8</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1377,37 +1425,40 @@
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1419,37 +1470,40 @@
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1461,10 +1515,11 @@
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1472,26 +1527,28 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1503,37 +1560,40 @@
         <v>264</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1545,37 +1605,40 @@
         <v>261.8</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1587,37 +1650,40 @@
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1629,37 +1695,40 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1671,37 +1740,40 @@
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1713,37 +1785,40 @@
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1755,37 +1830,40 @@
         <v>250.8</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1797,37 +1875,40 @@
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1839,37 +1920,40 @@
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1881,37 +1965,40 @@
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1923,37 +2010,40 @@
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1965,41 +2055,44 @@
         <v>239.8</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>4*1.1/2</f>
+        <f>A$1*1.1/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="1">
@@ -2007,41 +2100,44 @@
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">4*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">A$1*1.1/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2049,41 +2145,44 @@
         <v>117.7</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2091,41 +2190,44 @@
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2133,25 +2235,27 @@
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>385.5</v>
       </c>
     </row>
@@ -2174,8 +2278,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(K3:K38)</f>
-        <v>13013.4</v>
+        <f>INT(SUM(K3:K38))</f>
+        <v>13013</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2228,8 +2332,8 @@
         <v>47</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(E3:E38)</f>
-        <v>308</v>
+        <f>MAX(K3:K38)</f>
+        <v>469.8</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59DEA1D-A2EA-4973-A195-3A868A1D707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14526F90-B933-4387-8F27-1764F41A2A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3540" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="1">
@@ -669,7 +669,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -697,11 +697,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">A$1*1.1</f>
+        <f>D3</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>305.8</v>
       </c>
       <c r="F4" s="2">
@@ -713,7 +713,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -721,32 +721,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>305.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>303.60000000000002</v>
       </c>
       <c r="F5" s="2">
@@ -758,7 +758,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -766,32 +766,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>303.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>301.40000000000003</v>
       </c>
       <c r="F6" s="2">
@@ -803,7 +803,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -811,32 +811,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>301.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>299.20000000000005</v>
       </c>
       <c r="F7" s="2">
@@ -848,7 +848,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -856,32 +856,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>299.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>297</v>
       </c>
       <c r="F8" s="2">
@@ -893,7 +893,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -901,32 +901,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>294.8</v>
       </c>
       <c r="F9" s="2">
@@ -938,7 +938,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -946,32 +946,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>294.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>292.60000000000002</v>
       </c>
       <c r="F10" s="2">
@@ -983,7 +983,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -991,32 +991,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>292.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>290.40000000000003</v>
       </c>
       <c r="F11" s="2">
@@ -1028,7 +1028,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1036,32 +1036,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="2">
@@ -1073,7 +1073,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1081,32 +1081,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
       <c r="F13" s="2">
@@ -1118,7 +1118,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1126,32 +1126,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>283.8</v>
       </c>
       <c r="F14" s="2">
@@ -1163,7 +1163,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1171,32 +1171,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="2">
@@ -1208,7 +1208,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1216,32 +1216,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="2">
@@ -1253,7 +1253,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1261,32 +1261,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="2">
@@ -1298,7 +1298,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1306,32 +1306,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="F18" s="2">
@@ -1343,7 +1343,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1351,32 +1351,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>272.8</v>
       </c>
       <c r="F19" s="2">
@@ -1388,7 +1388,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1396,32 +1396,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="2">
@@ -1433,7 +1433,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1441,32 +1441,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="2">
@@ -1478,7 +1478,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1486,32 +1486,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="2">
@@ -1523,7 +1523,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f>IF(G22&lt;=F22,0,G22-F22)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1531,32 +1531,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="F23" s="2">
@@ -1568,7 +1568,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1576,32 +1576,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>261.8</v>
       </c>
       <c r="F24" s="2">
@@ -1613,7 +1613,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1621,32 +1621,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="2">
@@ -1658,7 +1658,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1666,32 +1666,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="2">
@@ -1703,7 +1703,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1711,32 +1711,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="2">
@@ -1748,7 +1748,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1756,32 +1756,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="2">
@@ -1793,7 +1793,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1801,32 +1801,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>250.8</v>
       </c>
       <c r="F29" s="2">
@@ -1838,7 +1838,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1846,32 +1846,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="2">
@@ -1883,7 +1883,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1891,32 +1891,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="2">
@@ -1928,7 +1928,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1936,32 +1936,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="2">
@@ -1973,7 +1973,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1981,32 +1981,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="2">
@@ -2018,7 +2018,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2026,32 +2026,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>239.8</v>
       </c>
       <c r="F34" s="2">
@@ -2063,7 +2063,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2071,32 +2071,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>A$1*1.1/2</f>
+        <f>D34/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="2">
@@ -2108,7 +2108,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2116,32 +2116,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">A$1*1.1/2</f>
+        <f>D35</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>117.7</v>
       </c>
       <c r="F36" s="2">
@@ -2153,7 +2153,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2161,32 +2161,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="2">
@@ -2198,7 +2198,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2206,32 +2206,32 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="2">
@@ -2243,7 +2243,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2251,11 +2251,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>385.5</v>
       </c>
     </row>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14526F90-B933-4387-8F27-1764F41A2A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C293D5A7-37D1-4062-BF5D-086E1B2EA4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,18 +249,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,1651 +618,1651 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f>A1*1.1</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="E3" s="1">
-        <f>C3*D3</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>308</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
-        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H24" si="1">IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <f>I3*H3</f>
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
-        <f>E3+J3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>A3+1</f>
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <f>C3-0.5</f>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
         <v>305.8</v>
       </c>
-      <c r="F4" s="2">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
-        <f>G3+1</f>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G38" si="8">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>I3</f>
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
-        <v>305.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
-        <v>69</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">D4</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>303.60000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
-        <v>44807</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="9">I4</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I38" si="9">I3</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="3"/>
+      <c r="K4" s="3">
+        <f t="shared" si="3"/>
+        <v>305.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
         <v>303.60000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="5"/>
-        <v>68.5</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>301.40000000000003</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="8"/>
-        <v>44808</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F5" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="8"/>
+        <v>44807</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I5" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="3"/>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>303.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="5"/>
+        <v>68.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>301.40000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>299.20000000000005</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="8"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="8"/>
+        <v>44808</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I6" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="3"/>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>301.40000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>299.20000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="5"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="8"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="8"/>
+        <v>44809</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I7" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="3"/>
+      <c r="K7" s="3">
+        <f t="shared" si="3"/>
+        <v>299.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>294.8</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="8"/>
-        <v>44811</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="8"/>
+        <v>44810</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I8" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="3"/>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>294.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="5"/>
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>292.60000000000002</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="8"/>
-        <v>44812</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="8"/>
+        <v>44811</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I9" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="3"/>
+      <c r="K9" s="3">
+        <f t="shared" si="3"/>
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="5"/>
+        <v>66.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>292.60000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>290.40000000000003</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="8"/>
+        <v>44812</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I10" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <f t="shared" si="3"/>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>290.40000000000003</v>
       </c>
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="3"/>
+        <v>290.40000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>288.20000000000005</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="3"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>283.8</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <f t="shared" si="3"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>281.60000000000002</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <f t="shared" si="3"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>279.40000000000003</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <f t="shared" si="3"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>277.20000000000005</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <f t="shared" si="3"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>272.8</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <f t="shared" si="3"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>270.60000000000002</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <f t="shared" si="3"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>268.40000000000003</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f t="shared" si="3"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>266.20000000000005</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <f t="shared" si="3"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <f t="shared" si="3"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>261.8</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <f t="shared" si="3"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>259.60000000000002</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
+      <c r="H25" s="3">
+        <f t="shared" ref="H25:H38" si="10">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <f t="shared" si="3"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>257.40000000000003</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
+      <c r="H26" s="3">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <f t="shared" si="3"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>255.20000000000002</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
+      <c r="H27" s="3">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <f t="shared" si="3"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>253.00000000000003</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
+      <c r="H28" s="3">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <f t="shared" si="3"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>250.8</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
+      <c r="H29" s="3">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <f t="shared" si="3"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>248.60000000000002</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
+      <c r="H30" s="3">
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <f t="shared" si="3"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
         <v>246.40000000000003</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
+      <c r="H31" s="3">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <f t="shared" si="3"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>244.20000000000002</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
+      <c r="H32" s="3">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <f t="shared" si="3"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>242.00000000000003</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
+      <c r="H33" s="3">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <f t="shared" si="3"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="0"/>
         <v>239.8</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
+      <c r="H34" s="3">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <f t="shared" si="3"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
-        <f>D34/2</f>
+      <c r="D35" s="3">
+        <f>$D$3/2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <f t="shared" si="0"/>
         <v>118.80000000000001</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
+      <c r="H35" s="3">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <f t="shared" si="3"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <f>D35</f>
+      <c r="D36" s="3">
+        <f>$D$3/2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <f t="shared" si="0"/>
         <v>117.7</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
+      <c r="H36" s="3">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="3">
         <f t="shared" si="3"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="6"/>
+      <c r="D37" s="3">
+        <f>$D$3/2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <f t="shared" si="0"/>
         <v>116.60000000000001</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
+      <c r="H37" s="3">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <f t="shared" si="3"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="6"/>
+      <c r="D38" s="3">
+        <f>$D$3/2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <f t="shared" si="0"/>
         <v>115.50000000000001</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
+      <c r="H38" s="3">
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <f t="shared" si="3"/>
         <v>385.5</v>
       </c>
@@ -2274,10 +2282,10 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
         <v>13013</v>
       </c>
@@ -2292,7 +2300,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="1">
@@ -2310,7 +2318,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="1">
@@ -2328,7 +2336,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C293D5A7-37D1-4062-BF5D-086E1B2EA4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C3B99-8047-47F8-A4E0-88208BC62982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="5475" yWindow="4530" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,35 +677,35 @@
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H24" si="1">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <f t="shared" ref="D4:D34" si="5">D3</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="3">
@@ -713,15 +713,15 @@
         <v>305.8</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="6">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+        <f t="shared" ref="G4:G38" si="7">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -729,28 +729,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>305.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="3">
@@ -758,15 +758,15 @@
         <v>303.60000000000002</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44807</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
@@ -774,28 +774,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>303.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E6" s="3">
@@ -803,15 +803,15 @@
         <v>301.40000000000003</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
@@ -819,28 +819,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>301.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="3">
@@ -848,15 +848,15 @@
         <v>299.20000000000005</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
@@ -864,28 +864,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>299.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="3">
@@ -893,15 +893,15 @@
         <v>297</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
@@ -909,28 +909,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="3">
@@ -938,15 +938,15 @@
         <v>294.8</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
@@ -954,28 +954,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>294.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="3">
@@ -983,15 +983,15 @@
         <v>292.60000000000002</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
@@ -999,28 +999,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>292.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="3">
@@ -1028,15 +1028,15 @@
         <v>290.40000000000003</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
@@ -1044,28 +1044,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="3">
@@ -1073,15 +1073,15 @@
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
@@ -1089,28 +1089,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="3">
@@ -1118,15 +1118,15 @@
         <v>286</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
@@ -1134,28 +1134,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="3">
@@ -1163,15 +1163,15 @@
         <v>283.8</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
@@ -1179,28 +1179,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="3">
@@ -1208,15 +1208,15 @@
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
@@ -1224,28 +1224,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="3">
@@ -1253,15 +1253,15 @@
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
@@ -1269,28 +1269,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="3">
@@ -1298,15 +1298,15 @@
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
@@ -1314,28 +1314,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="3">
@@ -1343,15 +1343,15 @@
         <v>275</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
@@ -1359,28 +1359,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="3">
@@ -1388,15 +1388,15 @@
         <v>272.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
@@ -1404,28 +1404,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="3">
@@ -1433,15 +1433,15 @@
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
@@ -1449,28 +1449,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="3">
@@ -1478,15 +1478,15 @@
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
@@ -1494,28 +1494,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="3">
@@ -1523,15 +1523,15 @@
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
@@ -1539,28 +1539,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="3">
@@ -1568,15 +1568,15 @@
         <v>264</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
@@ -1584,28 +1584,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="3">
@@ -1613,15 +1613,15 @@
         <v>261.8</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
@@ -1629,28 +1629,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="3">
@@ -1658,15 +1658,15 @@
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25:H38" si="10">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
@@ -1674,28 +1674,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="3">
@@ -1703,15 +1703,15 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
@@ -1719,28 +1719,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="3">
@@ -1748,15 +1748,15 @@
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
@@ -1764,28 +1764,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="3">
@@ -1793,15 +1793,15 @@
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
@@ -1809,28 +1809,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="3">
@@ -1838,15 +1838,15 @@
         <v>250.8</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
@@ -1854,28 +1854,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="3">
@@ -1883,15 +1883,15 @@
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
@@ -1899,28 +1899,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="3">
@@ -1928,15 +1928,15 @@
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
@@ -1944,28 +1944,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="3">
@@ -1973,15 +1973,15 @@
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="3">
@@ -2018,15 +2018,15 @@
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
@@ -2034,28 +2034,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="3">
@@ -2063,15 +2063,15 @@
         <v>239.8</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
@@ -2079,24 +2079,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
@@ -2108,15 +2108,15 @@
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
@@ -2124,24 +2124,24 @@
         <v>10</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
@@ -2153,15 +2153,15 @@
         <v>117.7</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
@@ -2169,24 +2169,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
@@ -2198,15 +2198,15 @@
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
@@ -2214,24 +2214,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
@@ -2243,15 +2243,15 @@
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
@@ -2259,11 +2259,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>385.5</v>
       </c>
     </row>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C3B99-8047-47F8-A4E0-88208BC62982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FDF01A-C806-465D-A626-7BFC8C9583AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="4530" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="7305" yWindow="1635" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H38"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FDF01A-C806-465D-A626-7BFC8C9583AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6331E2-DC57-4AD3-BD7B-1CC935E702AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="1635" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,9 +250,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -267,9 +273,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{F4F123E8-01C2-45E7-90E3-88E6E4DDF0FF}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{D545632A-9460-4E10-A918-A41326523069}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,35 +684,35 @@
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f t="shared" ref="H3:H24" si="1">IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A38" si="3">A3+1</f>
+        <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D34" si="5">D3</f>
+        <f t="shared" ref="D4:D34" si="6">D3</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="3">
@@ -713,15 +720,15 @@
         <v>305.8</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F38" si="6">F3</f>
+        <f t="shared" ref="F4:F38" si="7">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G38" si="7">G3+1</f>
+        <f t="shared" ref="G4:G38" si="8">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4, 0, G4-F4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -729,343 +736,343 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="3"/>
+        <v>305.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>303.60000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="8"/>
+        <v>44807</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="2"/>
-        <v>305.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f t="shared" si="3"/>
+      <c r="I5" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>303.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>303.60000000000002</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="7"/>
-        <v>44807</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="C6" s="3">
+        <f t="shared" si="5"/>
+        <v>68.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>301.40000000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="8"/>
+        <v>44808</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="2"/>
-        <v>303.60000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f t="shared" si="3"/>
+      <c r="I6" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>301.40000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>68.5</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>301.40000000000003</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="7"/>
-        <v>44808</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="C7" s="3">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>299.20000000000005</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="8"/>
+        <v>44809</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="2"/>
-        <v>301.40000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f t="shared" si="3"/>
+      <c r="I7" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="3"/>
+        <v>299.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>299.20000000000005</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="7"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="C8" s="3">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="8"/>
+        <v>44810</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="2"/>
-        <v>299.20000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="3"/>
+      <c r="I8" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="4"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="7"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="C9" s="3">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>294.8</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="8"/>
+        <v>44811</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f t="shared" si="3"/>
+      <c r="I9" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="3"/>
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>294.8</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="7"/>
-        <v>44811</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="C10" s="3">
+        <f t="shared" si="5"/>
+        <v>66.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="8"/>
+        <v>44812</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="2"/>
-        <v>294.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f t="shared" si="3"/>
+      <c r="I10" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="4"/>
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>292.60000000000002</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="7"/>
-        <v>44812</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="C11" s="3">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>290.40000000000003</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="2"/>
-        <v>292.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>290.40000000000003</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="8"/>
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="3">
@@ -1073,15 +1080,15 @@
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
@@ -1089,28 +1096,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="3">
@@ -1118,15 +1125,15 @@
         <v>286</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
@@ -1134,28 +1141,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="3">
@@ -1163,15 +1170,15 @@
         <v>283.8</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
@@ -1179,28 +1186,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="3">
@@ -1208,15 +1215,15 @@
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
@@ -1224,28 +1231,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="3">
@@ -1253,15 +1260,15 @@
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
@@ -1269,28 +1276,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="3">
@@ -1298,15 +1305,15 @@
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
@@ -1314,28 +1321,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="3">
@@ -1343,15 +1350,15 @@
         <v>275</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
@@ -1359,28 +1366,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="3">
@@ -1388,15 +1395,15 @@
         <v>272.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
@@ -1404,28 +1411,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="3">
@@ -1433,15 +1440,15 @@
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
@@ -1449,28 +1456,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="3">
@@ -1478,15 +1485,15 @@
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
@@ -1494,28 +1501,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="3">
@@ -1523,15 +1530,15 @@
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
@@ -1539,28 +1546,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="3">
@@ -1568,15 +1575,15 @@
         <v>264</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
@@ -1584,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="3">
@@ -1613,15 +1620,15 @@
         <v>261.8</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
@@ -1629,28 +1636,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="3">
@@ -1658,15 +1665,15 @@
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H25:H38" si="10">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
         <v>14</v>
       </c>
       <c r="I25" s="5">
@@ -1674,28 +1681,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="3">
@@ -1703,15 +1710,15 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
@@ -1719,28 +1726,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="3">
@@ -1748,15 +1755,15 @@
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
@@ -1764,28 +1771,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="3">
@@ -1793,15 +1800,15 @@
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
@@ -1809,28 +1816,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="3">
@@ -1838,15 +1845,15 @@
         <v>250.8</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
@@ -1854,28 +1861,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="3">
@@ -1883,15 +1890,15 @@
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
@@ -1899,28 +1906,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="3">
@@ -1928,15 +1935,15 @@
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
@@ -1944,28 +1951,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="3">
@@ -1973,15 +1980,15 @@
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
@@ -1989,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="3">
@@ -2018,15 +2025,15 @@
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
@@ -2034,28 +2041,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="3">
@@ -2063,15 +2070,15 @@
         <v>239.8</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
@@ -2079,24 +2086,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
@@ -2108,15 +2115,15 @@
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
@@ -2124,24 +2131,24 @@
         <v>10</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
@@ -2153,15 +2160,15 @@
         <v>117.7</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
@@ -2169,24 +2176,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
@@ -2198,15 +2205,15 @@
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
@@ -2214,24 +2221,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
@@ -2243,15 +2250,15 @@
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
@@ -2259,11 +2266,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>385.5</v>
       </c>
     </row>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6331E2-DC57-4AD3-BD7B-1CC935E702AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57435A54-4376-440C-BF19-5FC66F6A85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H3" sqref="H3:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,35 +684,35 @@
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H24" si="1">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <f t="shared" ref="D4:D34" si="5">D3</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="3">
@@ -720,15 +720,15 @@
         <v>305.8</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="6">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+        <f t="shared" ref="G4:G38" si="7">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -736,28 +736,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>305.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="3">
@@ -765,15 +765,15 @@
         <v>303.60000000000002</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44807</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
@@ -781,28 +781,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>303.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E6" s="3">
@@ -810,15 +810,15 @@
         <v>301.40000000000003</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
@@ -826,28 +826,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>301.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="3">
@@ -855,15 +855,15 @@
         <v>299.20000000000005</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
@@ -871,28 +871,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>299.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="3">
@@ -900,15 +900,15 @@
         <v>297</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
@@ -916,28 +916,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="3">
@@ -945,15 +945,15 @@
         <v>294.8</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
@@ -961,28 +961,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>294.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="3">
@@ -990,15 +990,15 @@
         <v>292.60000000000002</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
@@ -1006,28 +1006,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>292.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="3">
@@ -1035,15 +1035,15 @@
         <v>290.40000000000003</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
@@ -1051,28 +1051,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="3">
@@ -1080,15 +1080,15 @@
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
@@ -1096,28 +1096,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="3">
@@ -1125,15 +1125,15 @@
         <v>286</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
@@ -1141,28 +1141,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="3">
@@ -1170,15 +1170,15 @@
         <v>283.8</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
@@ -1186,28 +1186,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="3">
@@ -1215,15 +1215,15 @@
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
@@ -1231,28 +1231,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="3">
@@ -1260,15 +1260,15 @@
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
@@ -1276,28 +1276,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="3">
@@ -1305,15 +1305,15 @@
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
@@ -1321,28 +1321,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="3">
@@ -1350,15 +1350,15 @@
         <v>275</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
@@ -1366,28 +1366,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="3">
@@ -1395,15 +1395,15 @@
         <v>272.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
@@ -1411,28 +1411,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="3">
@@ -1440,15 +1440,15 @@
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
@@ -1456,28 +1456,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="3">
@@ -1485,15 +1485,15 @@
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
@@ -1501,28 +1501,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="3">
@@ -1530,15 +1530,15 @@
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
@@ -1546,28 +1546,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="3">
@@ -1575,15 +1575,15 @@
         <v>264</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
@@ -1591,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="3">
@@ -1620,15 +1620,15 @@
         <v>261.8</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
@@ -1636,28 +1636,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="3">
@@ -1665,15 +1665,15 @@
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25:H38" si="10">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
@@ -1681,28 +1681,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="3">
@@ -1710,15 +1710,15 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
@@ -1726,28 +1726,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="3">
@@ -1755,15 +1755,15 @@
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
@@ -1771,28 +1771,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="3">
@@ -1800,15 +1800,15 @@
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
@@ -1816,28 +1816,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="3">
@@ -1845,15 +1845,15 @@
         <v>250.8</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
@@ -1861,28 +1861,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="3">
@@ -1890,15 +1890,15 @@
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
@@ -1906,28 +1906,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="3">
@@ -1935,15 +1935,15 @@
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
@@ -1951,28 +1951,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="3">
@@ -1980,15 +1980,15 @@
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="3">
@@ -2025,15 +2025,15 @@
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
@@ -2041,28 +2041,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="3">
@@ -2070,15 +2070,15 @@
         <v>239.8</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
@@ -2086,24 +2086,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
@@ -2115,15 +2115,15 @@
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
@@ -2131,24 +2131,24 @@
         <v>10</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
@@ -2160,15 +2160,15 @@
         <v>117.7</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
@@ -2176,24 +2176,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
@@ -2205,15 +2205,15 @@
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
@@ -2221,24 +2221,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
@@ -2250,15 +2250,15 @@
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
@@ -2266,11 +2266,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>385.5</v>
       </c>
     </row>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EADF94-0297-424A-987F-DE8F09825DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF3594-2891-4D84-A78C-847E2EFAE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2310,7 @@
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <f>MAX(K3, K38)</f>
         <v>385.5</v>
       </c>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF3594-2891-4D84-A78C-847E2EFAE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42432377-9375-4E6F-A82E-5E9AA4D04148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="-105" yWindow="90" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42432377-9375-4E6F-A82E-5E9AA4D04148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0CB24-B66B-48CB-9F6D-37679326A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="90" windowWidth="21600" windowHeight="11295" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +661,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0CB24-B66B-48CB-9F6D-37679326A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB9E04A-E11E-41F1-AABB-8728F4B6C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Куропаткин 2</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -650,7 +650,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -661,7 +661,6 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2236,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2345,7 +2344,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3, K38)</f>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB9E04A-E11E-41F1-AABB-8728F4B6C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A63D53-3B6C-47AC-A704-986D9F1C249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,35 +684,35 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H24" si="1">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <f t="shared" ref="D4:D34" si="5">D3</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="2">
@@ -720,15 +720,15 @@
         <v>305.8</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="6">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+        <f t="shared" ref="G4:G38" si="7">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -736,28 +736,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>305.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="2">
@@ -765,15 +765,15 @@
         <v>303.60000000000002</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -781,28 +781,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>303.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E6" s="2">
@@ -810,15 +810,15 @@
         <v>301.40000000000003</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
@@ -826,28 +826,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>301.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="2">
@@ -855,15 +855,15 @@
         <v>299.20000000000005</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
@@ -871,28 +871,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>299.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="2">
@@ -900,15 +900,15 @@
         <v>297</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
@@ -916,28 +916,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="2">
@@ -945,15 +945,15 @@
         <v>294.8</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -961,28 +961,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>294.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="2">
@@ -990,15 +990,15 @@
         <v>292.60000000000002</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
@@ -1006,28 +1006,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>292.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="2">
@@ -1035,15 +1035,15 @@
         <v>290.40000000000003</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -1051,28 +1051,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="2">
@@ -1080,15 +1080,15 @@
         <v>288.20000000000005</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
@@ -1096,28 +1096,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="2">
@@ -1125,15 +1125,15 @@
         <v>286</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
@@ -1141,28 +1141,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="2">
@@ -1170,15 +1170,15 @@
         <v>283.8</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
@@ -1186,28 +1186,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="2">
@@ -1215,15 +1215,15 @@
         <v>281.60000000000002</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
@@ -1231,28 +1231,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="2">
@@ -1260,15 +1260,15 @@
         <v>279.40000000000003</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
@@ -1276,28 +1276,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="2">
@@ -1305,15 +1305,15 @@
         <v>277.20000000000005</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
@@ -1321,28 +1321,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="2">
@@ -1350,15 +1350,15 @@
         <v>275</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
@@ -1366,28 +1366,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="2">
@@ -1395,15 +1395,15 @@
         <v>272.8</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
@@ -1411,28 +1411,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="2">
@@ -1440,15 +1440,15 @@
         <v>270.60000000000002</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
@@ -1456,28 +1456,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="2">
@@ -1485,15 +1485,15 @@
         <v>268.40000000000003</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
@@ -1501,28 +1501,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="2">
@@ -1530,15 +1530,15 @@
         <v>266.20000000000005</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
@@ -1546,28 +1546,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="2">
@@ -1575,15 +1575,15 @@
         <v>264</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
@@ -1591,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="2">
@@ -1620,15 +1620,15 @@
         <v>261.8</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
@@ -1636,28 +1636,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="2">
@@ -1665,15 +1665,15 @@
         <v>259.60000000000002</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" ref="H25:H38" si="10">IF(SUM(G25, -F25)&lt;0, 0, SUM(G25, -F25))</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
@@ -1681,28 +1681,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="2">
@@ -1710,15 +1710,15 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
@@ -1726,28 +1726,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="2">
@@ -1755,15 +1755,15 @@
         <v>255.20000000000002</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
@@ -1771,28 +1771,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="2">
@@ -1800,15 +1800,15 @@
         <v>253.00000000000003</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
@@ -1816,28 +1816,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="2">
@@ -1845,15 +1845,15 @@
         <v>250.8</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
@@ -1861,28 +1861,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="2">
@@ -1890,15 +1890,15 @@
         <v>248.60000000000002</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
@@ -1906,28 +1906,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="2">
@@ -1935,15 +1935,15 @@
         <v>246.40000000000003</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
@@ -1951,28 +1951,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="2">
@@ -1980,15 +1980,15 @@
         <v>244.20000000000002</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="2">
@@ -2025,15 +2025,15 @@
         <v>242.00000000000003</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
@@ -2041,28 +2041,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="2">
@@ -2070,15 +2070,15 @@
         <v>239.8</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="2">
@@ -2115,15 +2115,15 @@
         <v>118.80000000000001</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
@@ -2131,28 +2131,28 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>358.8</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="2">
@@ -2160,15 +2160,15 @@
         <v>117.7</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
@@ -2176,28 +2176,28 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>367.7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="2">
@@ -2205,15 +2205,15 @@
         <v>116.60000000000001</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
@@ -2221,28 +2221,28 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>376.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E38" s="2">
@@ -2250,15 +2250,15 @@
         <v>115.50000000000001</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
@@ -2266,11 +2266,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>385.5</v>
       </c>
     </row>
@@ -2347,8 +2347,8 @@
         <v>50</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3, K38)</f>
-        <v>385.5</v>
+        <f>MAX(K3:K38)</f>
+        <v>469.8</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A63D53-3B6C-47AC-A704-986D9F1C249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A3C80-863A-4800-A2D9-8ED4A0DE0DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Коканов</t>
   </si>
   <si>
-    <t>Мохамед</t>
-  </si>
-  <si>
     <t>Надеждин</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Филатов</t>
   </si>
   <si>
-    <t>Хабк</t>
-  </si>
-  <si>
     <t>Хазипова</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Абделазиз</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -188,6 +179,15 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Абделазиз1</t>
+  </si>
+  <si>
+    <t>Мохамед1</t>
+  </si>
+  <si>
+    <t>Хабк1</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,34 +629,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -1290,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -1335,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -1380,7 +1380,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -1425,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -1560,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
@@ -1605,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
@@ -1650,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="4"/>
@@ -1695,7 +1695,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="4"/>
@@ -1740,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="4"/>
@@ -1785,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="4"/>
@@ -1830,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="4"/>
@@ -1875,7 +1875,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="4"/>
@@ -1920,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="4"/>
@@ -1965,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="4"/>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="4"/>
@@ -2055,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="4"/>
@@ -2100,7 +2100,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="4"/>
@@ -2145,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="4"/>
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
@@ -2235,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2290,7 +2290,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
@@ -2308,7 +2308,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2326,7 +2326,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2344,7 +2344,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A3C80-863A-4800-A2D9-8ED4A0DE0DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B535C2-1124-4047-A081-C988022EE693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -181,13 +175,19 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Абделазиз1</t>
-  </si>
-  <si>
-    <t>Мохамед1</t>
-  </si>
-  <si>
-    <t>Хабк1</t>
+    <t>Хабк</t>
+  </si>
+  <si>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Куропаткин1</t>
+  </si>
+  <si>
+    <t>Куропаткин2</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,34 +629,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -1740,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="4"/>
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
@@ -2235,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2290,7 +2290,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
@@ -2308,7 +2308,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2326,7 +2326,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2344,7 +2344,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B535C2-1124-4047-A081-C988022EE693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8A85B-A9AE-42E1-BF67-DA9EBF388E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -184,10 +184,10 @@
     <t>Мохамед</t>
   </si>
   <si>
-    <t>Куропаткин1</t>
-  </si>
-  <si>
-    <t>Куропаткин2</t>
+    <t>Кузин</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8A85B-A9AE-42E1-BF67-DA9EBF388E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C789B369-7555-41F8-959C-4953C017F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -728,11 +728,11 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4, 0, G4-F4)</f>
+        <f>H3+IF(F4&gt;=G4,0,1)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I38" si="9">I3</f>
+        <f t="shared" ref="I4:I38" si="8">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -773,11 +773,11 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H5:H38" si="9">H4+IF(F5&gt;=G5,0,1)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -818,11 +818,11 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -863,11 +863,11 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -908,11 +908,11 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -953,11 +953,11 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -998,11 +998,11 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1043,11 +1043,11 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1088,11 +1088,11 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1133,11 +1133,11 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1178,11 +1178,11 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1223,11 +1223,11 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1268,11 +1268,11 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1313,11 +1313,11 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1358,11 +1358,11 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1403,11 +1403,11 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1448,11 +1448,11 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1493,11 +1493,11 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1538,11 +1538,11 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1583,11 +1583,11 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1628,11 +1628,11 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1673,11 +1673,11 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1718,11 +1718,11 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1763,11 +1763,11 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1808,11 +1808,11 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1853,11 +1853,11 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1898,11 +1898,11 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1943,11 +1943,11 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1988,11 +1988,11 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2033,11 +2033,11 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2078,11 +2078,11 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2123,11 +2123,11 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2168,11 +2168,11 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2213,11 +2213,11 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2258,11 +2258,11 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2293,8 +2293,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <f>INT(SUM(K3:K38))</f>
-        <v>13013</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КЭГУ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C789B369-7555-41F8-959C-4953C017F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +192,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$₽-419]"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,11 +274,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{F4F123E8-01C2-45E7-90E3-88E6E4DDF0FF}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{D545632A-9460-4E10-A918-A41326523069}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,11 +592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +689,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>0</f>
+        <f>IF(F3&gt;=G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -728,11 +733,11 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f>H3+IF(F4&gt;=G4,0,1)</f>
+        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I38" si="8">I3</f>
+        <f t="shared" ref="I4:I38" si="9">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -773,11 +778,11 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H38" si="9">H4+IF(F5&gt;=G5,0,1)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -818,11 +823,11 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -863,11 +868,11 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -908,11 +913,11 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -953,11 +958,11 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -998,11 +1003,11 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1043,11 +1048,11 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1088,11 +1093,11 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1133,11 +1138,11 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1178,11 +1183,11 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1223,11 +1228,11 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1268,11 +1273,11 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1313,11 +1318,11 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1358,11 +1363,11 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1403,11 +1408,11 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1448,11 +1453,11 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1493,11 +1498,11 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1538,11 +1543,11 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1583,11 +1588,11 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1628,11 +1633,11 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1673,11 +1678,11 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1718,11 +1723,11 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1763,11 +1768,11 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1808,11 +1813,11 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1853,11 +1858,11 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1898,11 +1903,11 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1943,11 +1948,11 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1988,11 +1993,11 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2033,11 +2038,11 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2078,11 +2083,11 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2123,11 +2128,11 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2168,11 +2173,11 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2213,11 +2218,11 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2258,11 +2263,11 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2292,9 +2297,9 @@
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="2">
-        <f>5</f>
-        <v>5</v>
+      <c r="C40" s="6">
+        <f>SUM(K3:K38)</f>
+        <v>13013.4</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КЭГУ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870C82C-671D-4B22-A4A6-761E3246D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,10 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$₽-419]"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,14 +272,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,10 +590,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +687,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(F3&gt;=G3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -733,7 +731,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="8">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -2298,8 +2296,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="6">
-        <f>SUM(K3:K38)</f>
-        <v>13013.4</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>13013</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165DD987-A8A2-4E54-9DB2-BF611E174ECA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F205F-6AE5-497F-9F74-CACB1144B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,8 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,29 +576,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,11 +631,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1">
@@ -646,11 +643,11 @@
       </c>
       <c r="D3" s="1">
         <f>$A$1*1.1</f>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="F3" s="4">
         <v>44813</v>
@@ -671,15 +668,15 @@
       </c>
       <c r="K3" s="1">
         <f>E3+J3</f>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="1">
@@ -688,11 +685,11 @@
       </c>
       <c r="D4" s="1">
         <f>$A$1*1.1</f>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
-        <v>382.25</v>
+        <v>305.8</v>
       </c>
       <c r="F4" s="4">
         <f>F3</f>
@@ -716,15 +713,15 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="2">E4+J4</f>
-        <v>382.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>305.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="1">
@@ -733,11 +730,11 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D34" si="5">$A$1*1.1</f>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>379.5</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F38" si="6">F4</f>
@@ -761,15 +758,15 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>379.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>303.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1">
@@ -778,11 +775,11 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>376.75</v>
+        <v>301.40000000000003</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="6"/>
@@ -806,15 +803,15 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>376.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>301.40000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1">
@@ -823,11 +820,11 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>299.20000000000005</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="6"/>
@@ -851,15 +848,15 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>299.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1">
@@ -868,11 +865,11 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>371.25</v>
+        <v>297</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="6"/>
@@ -896,15 +893,15 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>371.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1">
@@ -913,11 +910,11 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>368.5</v>
+        <v>294.8</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="6"/>
@@ -941,15 +938,15 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>368.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1">
@@ -958,11 +955,11 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>365.75</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="6"/>
@@ -986,15 +983,15 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>365.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="1">
@@ -1003,11 +1000,11 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>290.40000000000003</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="6"/>
@@ -1031,15 +1028,15 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>290.40000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1">
@@ -1048,11 +1045,11 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>360.25</v>
+        <v>288.20000000000005</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="6"/>
@@ -1076,15 +1073,15 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>370.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>298.20000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
@@ -1093,11 +1090,11 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>357.5</v>
+        <v>286</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="6"/>
@@ -1121,15 +1118,15 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>377.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1">
@@ -1138,11 +1135,11 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>354.75</v>
+        <v>283.8</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="6"/>
@@ -1166,15 +1163,15 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>384.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>313.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -1183,11 +1180,11 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="6"/>
@@ -1211,15 +1208,15 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>321.60000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="1">
@@ -1228,11 +1225,11 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>349.25</v>
+        <v>279.40000000000003</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
@@ -1256,15 +1253,15 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>399.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329.40000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1">
@@ -1273,11 +1270,11 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>346.5</v>
+        <v>277.20000000000005</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
@@ -1301,15 +1298,15 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>406.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337.20000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1">
@@ -1318,11 +1315,11 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>343.75</v>
+        <v>275</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
@@ -1346,15 +1343,15 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>413.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1">
@@ -1363,11 +1360,11 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>272.8</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
@@ -1391,15 +1388,15 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="2"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="1">
@@ -1408,11 +1405,11 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>338.25</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
@@ -1436,15 +1433,15 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>428.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>360.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="1">
@@ -1453,11 +1450,11 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>335.5</v>
+        <v>268.40000000000003</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
@@ -1481,15 +1478,15 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
-        <v>435.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>368.40000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="1">
@@ -1498,11 +1495,11 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>332.75</v>
+        <v>266.20000000000005</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
@@ -1526,15 +1523,15 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v>442.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>376.20000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1">
@@ -1543,11 +1540,11 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
@@ -1571,15 +1568,15 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
@@ -1588,11 +1585,11 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>327.25</v>
+        <v>261.8</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
@@ -1616,15 +1613,15 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="2"/>
-        <v>457.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>391.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
@@ -1633,11 +1630,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>324.5</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
@@ -1661,15 +1658,15 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="2"/>
-        <v>464.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>399.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
@@ -1678,11 +1675,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>321.75</v>
+        <v>257.40000000000003</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
@@ -1706,15 +1703,15 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>471.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>407.40000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
@@ -1723,11 +1720,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>255.20000000000002</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
@@ -1751,15 +1748,15 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>415.20000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
@@ -1768,11 +1765,11 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>316.25</v>
+        <v>253.00000000000003</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
@@ -1796,15 +1793,15 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>486.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
@@ -1813,11 +1810,11 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>313.5</v>
+        <v>250.8</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
@@ -1841,15 +1838,15 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>493.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>430.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
@@ -1858,11 +1855,11 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>310.75</v>
+        <v>248.60000000000002</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
@@ -1886,15 +1883,15 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="2"/>
-        <v>500.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>438.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
@@ -1903,11 +1900,11 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>246.40000000000003</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
@@ -1931,15 +1928,15 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>446.40000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
@@ -1948,11 +1945,11 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>305.25</v>
+        <v>244.20000000000002</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
@@ -1976,15 +1973,15 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="2"/>
-        <v>515.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>454.20000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
@@ -1993,11 +1990,11 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>302.5</v>
+        <v>242.00000000000003</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
@@ -2021,15 +2018,15 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="2"/>
-        <v>522.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
@@ -2038,11 +2035,11 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>299.75</v>
+        <v>239.8</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="6"/>
@@ -2066,15 +2063,15 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="2"/>
-        <v>529.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>469.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
@@ -2083,11 +2080,11 @@
       </c>
       <c r="D35" s="1">
         <f>$A$1*1.1/2</f>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>148.5</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="6"/>
@@ -2111,15 +2108,15 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="2"/>
-        <v>388.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>358.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
@@ -2128,11 +2125,11 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>147.125</v>
+        <v>117.7</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="6"/>
@@ -2156,15 +2153,15 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="2"/>
-        <v>397.125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>367.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
@@ -2173,11 +2170,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>145.75</v>
+        <v>116.60000000000001</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="6"/>
@@ -2201,15 +2198,15 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="2"/>
-        <v>405.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>376.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
@@ -2218,11 +2215,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>144.375</v>
+        <v>115.50000000000001</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="6"/>
@@ -2246,19 +2243,19 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="2"/>
-        <v>414.375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>15321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>13013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
@@ -2276,13 +2273,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
-        <v>529.75</v>
+        <v>469.8</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870C82C-671D-4B22-A4A6-761E3246D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626ECF9-1267-49E9-90FC-396BD7C46E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -255,7 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2291,7 @@
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="2">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>13013</v>
       </c>
@@ -2314,8 +2310,8 @@
         <v>41</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C38)</f>
-        <v>61.25</v>
+        <f>AVERAGE(C3:C37)</f>
+        <v>61.5</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>

--- a/LR3/table_1_4.xlsx
+++ b/LR3/table_1_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626ECF9-1267-49E9-90FC-396BD7C46E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DAEF96-91FE-46AD-B8B4-77E765EB1EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2310,8 +2310,8 @@
         <v>41</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C37)</f>
-        <v>61.5</v>
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
